--- a/Excel/Item.xlsx
+++ b/Excel/Item.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8765E10A-226F-4F31-AAB8-3CBB3BFDEA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF5767-D82F-4A07-8E10-5F69FA47C442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29010" windowHeight="15435" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Reward" sheetId="1" r:id="rId1"/>
     <sheet name="Desc" sheetId="2" r:id="rId2"/>
     <sheet name="Info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Factor Name</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t>NameText</t>
-  </si>
-  <si>
-    <t>NameText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>AcquisitionRoute1</t>
-  </si>
-  <si>
-    <t>AcquisitionRoute1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,15 +125,6 @@
   <si>
     <t>AttendanceCardReward</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itme_StarSugarName</t>
-  </si>
-  <si>
-    <t>Itme_StarSugarDecs</t>
-  </si>
-  <si>
-    <t>Itme_StarSugarExtraText1</t>
   </si>
   <si>
     <t>Item</t>
@@ -191,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>획득 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이콘 이미지 제작 시 파일 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,9 +181,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttendanceCard - 출석 카드
+    <t>Itme_StarCandyDecs</t>
+  </si>
+  <si>
+    <t>Itme_StarCandyExtraText1</t>
+  </si>
+  <si>
+    <t>획득 경로1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 경로2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 경로3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AttendanceCard - 출석 카드
 (아래는 추후 추가 가능 요소)
-Chapter_000 - 특정 챕터</t>
+Chapter_000 - 특정 챕터
+AcquisitionRoute 열 1~3 동일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,14 +381,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -406,22 +400,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Text"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -763,28 +741,28 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -795,25 +773,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -824,14 +802,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I4:K4 A4:G4">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A4:K4">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -843,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
   <dimension ref="B4:F15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -889,66 +862,66 @@
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -956,48 +929,52 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
